--- a/2020/Others/Document/Mail/Mugdho Corporation Commission Top Sheet.xlsx
+++ b/2020/Others/Document/Mail/Mugdho Corporation Commission Top Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -42,9 +42,6 @@
     <t>November_2019</t>
   </si>
   <si>
-    <t>December_2018</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>G. Total Cost</t>
+  </si>
+  <si>
+    <t>Lifting Value</t>
+  </si>
+  <si>
+    <t>December_2019</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +268,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,27 +567,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="26.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="26.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -593,10 +600,11 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="19.5">
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="19.5">
       <c r="A2" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -606,10 +614,11 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="19.5">
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="19.5">
       <c r="A3" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -619,10 +628,11 @@
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="19.5">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="19.5">
       <c r="A4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -632,69 +642,76 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.5">
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5">
       <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="19.5">
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="19.5">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="10">
+        <v>8351524</v>
+      </c>
+      <c r="D6" s="10">
         <v>96498.318999999989</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>48273</v>
       </c>
-      <c r="E6" s="10">
-        <f>C6+D6</f>
+      <c r="F6" s="10">
+        <f>D6+E6</f>
         <v>144771.31899999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>3213</v>
       </c>
-      <c r="H6" s="3">
-        <f>F6+G6</f>
+      <c r="I6" s="3">
+        <f>G6+H6</f>
         <v>3213</v>
       </c>
-      <c r="I6" s="5">
-        <f>E6-H6</f>
+      <c r="J6" s="5">
+        <f>F6-I6</f>
         <v>141558.31899999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.5">
+    <row r="7" spans="1:10" ht="19.5">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -702,63 +719,69 @@
         <v>7</v>
       </c>
       <c r="C7" s="5">
+        <v>10302587</v>
+      </c>
+      <c r="D7" s="5">
         <v>206677.51500000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>26038</v>
       </c>
-      <c r="E7" s="5">
-        <f>C7+D7</f>
+      <c r="F7" s="5">
+        <f>D7+E7</f>
         <v>232715.51500000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>48700</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>49134</v>
       </c>
-      <c r="H7" s="3">
-        <f t="shared" ref="H7:H14" si="0">F7+G7</f>
+      <c r="I7" s="3">
+        <f t="shared" ref="I7:I14" si="0">G7+H7</f>
         <v>97834</v>
       </c>
-      <c r="I7" s="5">
-        <f t="shared" ref="I7:I14" si="1">E7-H7</f>
+      <c r="J7" s="5">
+        <f t="shared" ref="J7:J14" si="1">F7-I7</f>
         <v>134881.51500000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.5">
+    <row r="8" spans="1:10" ht="19.5">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5">
+        <v>8137647</v>
+      </c>
+      <c r="D8" s="5">
         <v>221797.85</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>33525</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" ref="E8:E14" si="2">C8+D8</f>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F14" si="2">D8+E8</f>
         <v>255322.85</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>49447</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>98147</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <f t="shared" si="1"/>
         <v>157175.85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.5">
+    <row r="9" spans="1:10" ht="19.5">
       <c r="A9" s="8">
         <v>4</v>
       </c>
@@ -766,31 +789,34 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
+        <v>9194398</v>
+      </c>
+      <c r="D9" s="5">
         <v>220744.01500000004</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>46773</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <f t="shared" si="2"/>
         <v>267517.01500000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>46498</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>95198</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <f t="shared" si="1"/>
         <v>172319.01500000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.5">
+    <row r="10" spans="1:10" ht="19.5">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -798,31 +824,34 @@
         <v>2</v>
       </c>
       <c r="C10" s="5">
+        <v>10334114</v>
+      </c>
+      <c r="D10" s="5">
         <v>235316.91000000003</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>47457</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <f t="shared" si="2"/>
         <v>282773.91000000003</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>48700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>45620</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>94320</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <f t="shared" si="1"/>
         <v>188453.91000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5">
+    <row r="11" spans="1:10" ht="19.5">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -830,31 +859,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="5">
+        <v>3782524</v>
+      </c>
+      <c r="D11" s="5">
         <v>165127.48500000002</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <f t="shared" si="2"/>
         <v>165127.48500000002</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>48700</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>40937</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>89637</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <f t="shared" si="1"/>
         <v>75490.485000000015</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19.5">
+    <row r="12" spans="1:10" ht="19.5">
       <c r="A12" s="8">
         <v>7</v>
       </c>
@@ -862,31 +894,34 @@
         <v>4</v>
       </c>
       <c r="C12" s="5">
+        <v>42541</v>
+      </c>
+      <c r="D12" s="5">
         <v>77320.63</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <f t="shared" si="2"/>
         <v>77320.63</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>41200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18990</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>60190</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <f t="shared" si="1"/>
         <v>17130.630000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="19.5">
+    <row r="13" spans="1:10" ht="19.5">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -894,31 +929,34 @@
         <v>5</v>
       </c>
       <c r="C13" s="5">
+        <v>11716664</v>
+      </c>
+      <c r="D13" s="5">
         <v>297279.78500000003</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>70070</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <f t="shared" si="2"/>
         <v>367349.78500000003</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>72200</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>116711</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>188911</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <f t="shared" si="1"/>
         <v>178438.78500000003</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="19.5">
+    <row r="14" spans="1:10" ht="19.5">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -926,70 +964,77 @@
         <v>6</v>
       </c>
       <c r="C14" s="5">
+        <v>12939795</v>
+      </c>
+      <c r="D14" s="5">
         <v>297489.90500000009</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>185755</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <f t="shared" si="2"/>
         <v>483244.90500000009</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>48700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>41685</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>90385</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <f t="shared" si="1"/>
         <v>392859.90500000009</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="19.5">
+    <row r="15" spans="1:10" ht="19.5">
       <c r="A15" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:I15" si="3">SUM(C6:C14)</f>
+      <c r="C15" s="21">
+        <f>SUM(C6:C14)</f>
+        <v>74801794</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:J15" si="3">SUM(D6:D14)</f>
         <v>1818252.4140000001</v>
       </c>
-      <c r="D15" s="14">
+      <c r="E15" s="14">
         <f t="shared" si="3"/>
         <v>457891</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <f t="shared" si="3"/>
         <v>2276143.4140000008</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G15" s="15">
         <f t="shared" si="3"/>
         <v>405600</v>
       </c>
-      <c r="G15" s="15">
+      <c r="H15" s="15">
         <f t="shared" si="3"/>
         <v>412235</v>
       </c>
-      <c r="H15" s="15">
+      <c r="I15" s="15">
         <f t="shared" si="3"/>
         <v>817835</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <f t="shared" si="3"/>
         <v>1458308.4140000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
